--- a/outputs_report/Report_tables_part2(11).xlsx
+++ b/outputs_report/Report_tables_part2(11).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04D520D-C966-4D9A-AB16-33BA6EF7A717}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39287667-EF31-40DE-966C-0C7539E82A5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="17" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="34" r:id="rId1"/>
@@ -19,35 +19,42 @@
     <sheet name="TaxStr" sheetId="7" r:id="rId9"/>
     <sheet name="TaxStr_US" sheetId="33" r:id="rId10"/>
     <sheet name="SimInputs_elast" sheetId="24" r:id="rId11"/>
-    <sheet name="SimInputs_eg" sheetId="32" r:id="rId12"/>
-    <sheet name="SimInputs_shareTax" sheetId="8" r:id="rId13"/>
-    <sheet name="ERC_tax_high (3)" sheetId="29" r:id="rId14"/>
-    <sheet name="ERC_tax_hike (3)" sheetId="28" r:id="rId15"/>
-    <sheet name="ERC_tax_high (2)" sheetId="25" r:id="rId16"/>
-    <sheet name="ERC_tax_hike (2)" sheetId="26" r:id="rId17"/>
-    <sheet name="ERC_tax_high" sheetId="21" r:id="rId18"/>
-    <sheet name="ERC_tax_hike" sheetId="22" r:id="rId19"/>
-    <sheet name="penFinance (2)" sheetId="30" r:id="rId20"/>
-    <sheet name="penFinance (3)" sheetId="35" r:id="rId21"/>
-    <sheet name="Models" sheetId="31" r:id="rId22"/>
-    <sheet name="PIT_stock_real (2)" sheetId="14" r:id="rId23"/>
-    <sheet name="PIT_stock_nom" sheetId="1" r:id="rId24"/>
-    <sheet name="PIT_stock_nom (2)" sheetId="5" r:id="rId25"/>
-    <sheet name="Sales_old" sheetId="2" r:id="rId26"/>
-    <sheet name="Probs" sheetId="16" r:id="rId27"/>
-    <sheet name="Sales_real_cycle_old" sheetId="20" r:id="rId28"/>
+    <sheet name="SimInputs_elast_totGrowth" sheetId="36" r:id="rId12"/>
+    <sheet name="SimInputs_eg" sheetId="32" r:id="rId13"/>
+    <sheet name="SimInputs_shareTax" sheetId="8" r:id="rId14"/>
+    <sheet name="ERC_tax_high (3)" sheetId="29" r:id="rId15"/>
+    <sheet name="ERC_tax_hike (3)" sheetId="28" r:id="rId16"/>
+    <sheet name="ERC_tax_high (2)" sheetId="25" r:id="rId17"/>
+    <sheet name="ERC_tax_hike (2)" sheetId="26" r:id="rId18"/>
+    <sheet name="ERC_tax_high" sheetId="21" r:id="rId19"/>
+    <sheet name="ERC_tax_hike" sheetId="22" r:id="rId20"/>
+    <sheet name="penFinance (2)" sheetId="30" r:id="rId21"/>
+    <sheet name="penFinance (3)" sheetId="35" r:id="rId22"/>
+    <sheet name="Models" sheetId="31" r:id="rId23"/>
+    <sheet name="PIT_stock_real (2)" sheetId="14" r:id="rId24"/>
+    <sheet name="PIT_stock_nom" sheetId="1" r:id="rId25"/>
+    <sheet name="PIT_stock_nom (2)" sheetId="5" r:id="rId26"/>
+    <sheet name="Sales_old" sheetId="2" r:id="rId27"/>
+    <sheet name="Probs" sheetId="16" r:id="rId28"/>
+    <sheet name="Sales_real_cycle_old" sheetId="20" r:id="rId29"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="333">
   <si>
     <t>Stock return</t>
   </si>
@@ -1360,6 +1367,12 @@
 ** The present value at year 1 of total employer contribution in year 1-15 under the policy "30-year open constant percent of payroll" is standardized to 1. All other values are standardized accordingly. 	
 *** Probability of low funded ratio:  the probability of funded ratio falling below 40% in any year during the 30 year simulation period.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elasticity with respect to </t>
+  </si>
+  <si>
+    <t>Assumptions on growth rates of tax revenues for simulation analysis</t>
   </si>
 </sst>
 </file>
@@ -1875,7 +1888,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2507,15 +2520,62 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2525,37 +2585,31 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2570,30 +2624,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2690,15 +2720,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2708,6 +2738,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2720,20 +2759,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3830,218 +3858,218 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="306" t="s">
+      <c r="A2" s="236" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="307" t="s">
+      <c r="B2" s="237" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="306" t="s">
+      <c r="A3" s="236" t="s">
         <v>272</v>
       </c>
-      <c r="B3" s="307" t="s">
+      <c r="B3" s="237" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="306" t="s">
+      <c r="A4" s="236" t="s">
         <v>274</v>
       </c>
-      <c r="B4" s="307" t="s">
+      <c r="B4" s="237" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="306" t="s">
+      <c r="A5" s="236" t="s">
         <v>276</v>
       </c>
-      <c r="B5" s="307" t="s">
+      <c r="B5" s="237" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="306" t="s">
+      <c r="A6" s="236" t="s">
         <v>278</v>
       </c>
-      <c r="B6" s="307" t="s">
+      <c r="B6" s="237" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="306" t="s">
+      <c r="A7" s="236" t="s">
         <v>280</v>
       </c>
-      <c r="B7" s="307" t="s">
+      <c r="B7" s="237" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="306" t="s">
+      <c r="A8" s="236" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="307" t="s">
+      <c r="B8" s="237" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="306" t="s">
+      <c r="A9" s="236" t="s">
         <v>284</v>
       </c>
-      <c r="B9" s="307" t="s">
+      <c r="B9" s="237" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="306" t="s">
+      <c r="A10" s="236" t="s">
         <v>286</v>
       </c>
-      <c r="B10" s="307" t="s">
+      <c r="B10" s="237" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="306" t="s">
+      <c r="A11" s="236" t="s">
         <v>288</v>
       </c>
-      <c r="B11" s="307" t="s">
+      <c r="B11" s="237" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="306" t="s">
+      <c r="A12" s="236" t="s">
         <v>290</v>
       </c>
-      <c r="B12" s="307" t="s">
+      <c r="B12" s="237" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="306" t="s">
+      <c r="A13" s="236" t="s">
         <v>292</v>
       </c>
-      <c r="B13" s="307" t="s">
+      <c r="B13" s="237" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="306" t="s">
+      <c r="A14" s="236" t="s">
         <v>294</v>
       </c>
-      <c r="B14" s="307" t="s">
+      <c r="B14" s="237" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="306" t="s">
+      <c r="A15" s="236" t="s">
         <v>296</v>
       </c>
-      <c r="B15" s="307" t="s">
+      <c r="B15" s="237" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="306" t="s">
+      <c r="A16" s="236" t="s">
         <v>298</v>
       </c>
-      <c r="B16" s="307" t="s">
+      <c r="B16" s="237" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="306" t="s">
+      <c r="A17" s="236" t="s">
         <v>300</v>
       </c>
-      <c r="B17" s="307" t="s">
+      <c r="B17" s="237" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="306" t="s">
+      <c r="A18" s="236" t="s">
         <v>302</v>
       </c>
-      <c r="B18" s="307" t="s">
+      <c r="B18" s="237" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="306" t="s">
+      <c r="A19" s="236" t="s">
         <v>304</v>
       </c>
-      <c r="B19" s="307" t="s">
+      <c r="B19" s="237" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="306" t="s">
+      <c r="A20" s="236" t="s">
         <v>306</v>
       </c>
-      <c r="B20" s="307" t="s">
+      <c r="B20" s="237" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="306" t="s">
+      <c r="A21" s="236" t="s">
         <v>308</v>
       </c>
-      <c r="B21" s="307" t="s">
+      <c r="B21" s="237" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="306" t="s">
+      <c r="A22" s="236" t="s">
         <v>310</v>
       </c>
-      <c r="B22" s="307" t="s">
+      <c r="B22" s="237" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="306" t="s">
+      <c r="A23" s="236" t="s">
         <v>312</v>
       </c>
-      <c r="B23" s="307" t="s">
+      <c r="B23" s="237" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="306" t="s">
+      <c r="A24" s="236" t="s">
         <v>314</v>
       </c>
-      <c r="B24" s="307" t="s">
+      <c r="B24" s="237" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="306" t="s">
+      <c r="A25" s="236" t="s">
         <v>316</v>
       </c>
-      <c r="B25" s="307" t="s">
+      <c r="B25" s="237" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="306" t="s">
+      <c r="A26" s="236" t="s">
         <v>318</v>
       </c>
-      <c r="B26" s="307" t="s">
+      <c r="B26" s="237" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="306" t="s">
+      <c r="A27" s="236" t="s">
         <v>320</v>
       </c>
-      <c r="B27" s="307" t="s">
+      <c r="B27" s="237" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="306" t="s">
+      <c r="A28" s="236" t="s">
         <v>322</v>
       </c>
-      <c r="B28" s="307" t="s">
+      <c r="B28" s="237" t="s">
         <v>323</v>
       </c>
     </row>
@@ -4107,11 +4135,11 @@
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="232" t="s">
+      <c r="B3" s="239" t="s">
         <v>266</v>
       </c>
-      <c r="C3" s="268"/>
-      <c r="D3" s="268"/>
+      <c r="C3" s="275"/>
+      <c r="D3" s="275"/>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4153,16 +4181,16 @@
         <f>Q31</f>
         <v>31625384</v>
       </c>
-      <c r="M5" s="262" t="s">
+      <c r="M5" s="269" t="s">
         <v>198</v>
       </c>
-      <c r="N5" s="265" t="s">
+      <c r="N5" s="272" t="s">
         <v>226</v>
       </c>
-      <c r="O5" s="266"/>
-      <c r="P5" s="266"/>
-      <c r="Q5" s="266"/>
-      <c r="R5" s="267"/>
+      <c r="O5" s="273"/>
+      <c r="P5" s="273"/>
+      <c r="Q5" s="273"/>
+      <c r="R5" s="274"/>
     </row>
     <row r="6" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
@@ -4186,7 +4214,7 @@
         <f>Q24</f>
         <v>81806193</v>
       </c>
-      <c r="M6" s="263"/>
+      <c r="M6" s="270"/>
       <c r="N6" s="210" t="s">
         <v>227</v>
       </c>
@@ -4225,7 +4253,7 @@
         <f>Q25</f>
         <v>31783927</v>
       </c>
-      <c r="M7" s="263"/>
+      <c r="M7" s="270"/>
       <c r="N7" s="212" t="s">
         <v>230</v>
       </c>
@@ -4264,7 +4292,7 @@
         <f>Q22</f>
         <v>472741906</v>
       </c>
-      <c r="M8" s="263"/>
+      <c r="M8" s="270"/>
       <c r="N8" s="214" t="s">
         <v>231</v>
       </c>
@@ -4303,7 +4331,7 @@
         <f>H10-SUM(H5:H8)</f>
         <v>38019707</v>
       </c>
-      <c r="M9" s="264"/>
+      <c r="M9" s="271"/>
       <c r="N9" s="215">
         <v>1</v>
       </c>
@@ -4322,11 +4350,11 @@
     </row>
     <row r="10" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="250" t="s">
+      <c r="B10" s="265" t="s">
         <v>267</v>
       </c>
-      <c r="C10" s="250"/>
-      <c r="D10" s="250"/>
+      <c r="C10" s="265"/>
+      <c r="D10" s="265"/>
       <c r="E10" s="7"/>
       <c r="G10" s="206">
         <f>P21</f>
@@ -4808,7 +4836,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:G8"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4835,25 +4863,25 @@
     <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="97"/>
-      <c r="C2" s="232" t="s">
+      <c r="C2" s="239" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="268"/>
-      <c r="E2" s="268"/>
-      <c r="F2" s="268"/>
-      <c r="G2" s="268"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
+      <c r="G2" s="275"/>
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="97"/>
       <c r="C3" s="145"/>
-      <c r="D3" s="231" t="s">
+      <c r="D3" s="238" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="231"/>
-      <c r="F3" s="231"/>
-      <c r="G3" s="231"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" s="77" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4876,10 +4904,10 @@
     </row>
     <row r="5" spans="1:8" s="77" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="96"/>
-      <c r="B5" s="237" t="s">
+      <c r="B5" s="247" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="237"/>
+      <c r="C5" s="247"/>
       <c r="D5" s="165">
         <v>1.9E-2</v>
       </c>
@@ -4906,7 +4934,7 @@
     </row>
     <row r="7" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="269" t="s">
+      <c r="B7" s="276" t="s">
         <v>130</v>
       </c>
       <c r="C7" s="24" t="s">
@@ -4928,7 +4956,7 @@
     </row>
     <row r="8" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="261"/>
+      <c r="B8" s="268"/>
       <c r="C8" s="116" t="s">
         <v>131</v>
       </c>
@@ -4964,6 +4992,148 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C07A63-F0C3-4623-BB21-A387ABCE08A2}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="205"/>
+    <col min="2" max="2" width="10.7109375" style="205" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="205" customWidth="1"/>
+    <col min="4" max="4" width="20" style="205" customWidth="1"/>
+    <col min="5" max="7" width="19.7109375" style="205" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="205"/>
+    <col min="9" max="10" width="11" style="205" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="205" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="205" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="205"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="239" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
+      <c r="G2" s="275"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="238" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" s="77" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="96"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="232" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="232" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="232" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="232" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="96"/>
+    </row>
+    <row r="5" spans="1:8" s="77" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="96"/>
+      <c r="B5" s="235"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="96"/>
+    </row>
+    <row r="6" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="276" t="s">
+        <v>331</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="169">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E6" s="233">
+        <v>1.3</v>
+      </c>
+      <c r="F6" s="163">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="233">
+        <v>1.3</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="268"/>
+      <c r="C7" s="231" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="234">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="234" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="234" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="234" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B6:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2CFEBD-C316-422D-8B3F-AC245D5A6F33}">
   <dimension ref="B1:N10"/>
   <sheetViews>
@@ -5013,14 +5183,14 @@
     </row>
     <row r="3" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="27"/>
-      <c r="C3" s="246" t="s">
+      <c r="C3" s="240" t="s">
         <v>219</v>
       </c>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
-      <c r="F3" s="246"/>
-      <c r="G3" s="246"/>
-      <c r="H3" s="246"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
+      <c r="H3" s="240"/>
       <c r="I3" s="171"/>
       <c r="J3" s="171"/>
       <c r="K3" s="171"/>
@@ -5031,17 +5201,17 @@
     <row r="4" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="27"/>
       <c r="C4" s="171"/>
-      <c r="D4" s="261" t="s">
+      <c r="D4" s="268" t="s">
         <v>213</v>
       </c>
-      <c r="E4" s="261"/>
-      <c r="F4" s="269" t="s">
+      <c r="E4" s="268"/>
+      <c r="F4" s="276" t="s">
         <v>217</v>
       </c>
-      <c r="G4" s="269" t="s">
+      <c r="G4" s="276" t="s">
         <v>218</v>
       </c>
-      <c r="H4" s="270" t="s">
+      <c r="H4" s="277" t="s">
         <v>225</v>
       </c>
       <c r="I4" s="171"/>
@@ -5060,9 +5230,9 @@
       <c r="E5" s="170" t="s">
         <v>216</v>
       </c>
-      <c r="F5" s="261"/>
-      <c r="G5" s="261"/>
-      <c r="H5" s="261"/>
+      <c r="F5" s="268"/>
+      <c r="G5" s="268"/>
+      <c r="H5" s="268"/>
       <c r="I5" s="171"/>
       <c r="J5" s="171"/>
       <c r="K5" s="171"/>
@@ -5200,14 +5370,14 @@
     </row>
     <row r="10" spans="2:14" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="27"/>
-      <c r="C10" s="250" t="s">
+      <c r="C10" s="265" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="260"/>
-      <c r="E10" s="260"/>
-      <c r="F10" s="260"/>
-      <c r="G10" s="260"/>
-      <c r="H10" s="260"/>
+      <c r="D10" s="267"/>
+      <c r="E10" s="267"/>
+      <c r="F10" s="267"/>
+      <c r="G10" s="267"/>
+      <c r="H10" s="267"/>
       <c r="I10" s="27"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
@@ -5228,7 +5398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5663A099-2651-493D-A992-060117A63C8A}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -5255,14 +5425,14 @@
     </row>
     <row r="2" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="261" t="s">
+      <c r="B2" s="268" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
     </row>
@@ -5398,7 +5568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8A15DE-5256-4222-B89E-DA6AE4F16853}">
   <dimension ref="A1:M22"/>
   <sheetViews>
@@ -5428,56 +5598,56 @@
     </row>
     <row r="2" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="274" t="s">
+      <c r="B2" s="281" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
-      <c r="G2" s="275"/>
-      <c r="H2" s="275"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
+      <c r="H2" s="282"/>
       <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="174"/>
-      <c r="C3" s="271" t="s">
+      <c r="C3" s="278" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="272"/>
-      <c r="E3" s="272"/>
-      <c r="F3" s="272"/>
-      <c r="G3" s="272"/>
-      <c r="H3" s="273"/>
+      <c r="D3" s="279"/>
+      <c r="E3" s="279"/>
+      <c r="F3" s="279"/>
+      <c r="G3" s="279"/>
+      <c r="H3" s="280"/>
       <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
-      <c r="B4" s="279" t="s">
+      <c r="B4" s="286" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="274" t="s">
+      <c r="C4" s="281" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="274"/>
-      <c r="E4" s="274" t="s">
+      <c r="D4" s="281"/>
+      <c r="E4" s="281" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="274"/>
-      <c r="G4" s="277" t="s">
+      <c r="F4" s="281"/>
+      <c r="G4" s="284" t="s">
         <v>181</v>
       </c>
-      <c r="H4" s="278"/>
+      <c r="H4" s="285"/>
       <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
-      <c r="B5" s="279"/>
-      <c r="C5" s="274"/>
-      <c r="D5" s="274"/>
-      <c r="E5" s="274"/>
-      <c r="F5" s="274"/>
+      <c r="B5" s="286"/>
+      <c r="C5" s="281"/>
+      <c r="D5" s="281"/>
+      <c r="E5" s="281"/>
+      <c r="F5" s="281"/>
       <c r="G5" s="161" t="s">
         <v>179</v>
       </c>
@@ -5488,7 +5658,7 @@
     </row>
     <row r="6" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
-      <c r="B6" s="279"/>
+      <c r="B6" s="286"/>
       <c r="C6" s="177" t="s">
         <v>175</v>
       </c>
@@ -5675,15 +5845,15 @@
     </row>
     <row r="11" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
-      <c r="B11" s="276" t="s">
+      <c r="B11" s="283" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="276"/>
-      <c r="D11" s="276"/>
-      <c r="E11" s="276"/>
-      <c r="F11" s="276"/>
-      <c r="G11" s="276"/>
-      <c r="H11" s="276"/>
+      <c r="C11" s="283"/>
+      <c r="D11" s="283"/>
+      <c r="E11" s="283"/>
+      <c r="F11" s="283"/>
+      <c r="G11" s="283"/>
+      <c r="H11" s="283"/>
       <c r="I11" s="27"/>
       <c r="J11">
         <v>6.8000000000000005E-2</v>
@@ -5855,7 +6025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24A37FB-A0D7-49EC-9418-A1C012E9A476}">
   <dimension ref="A1:M19"/>
   <sheetViews>
@@ -5885,56 +6055,56 @@
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="280" t="s">
+      <c r="B2" s="287" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="281"/>
-      <c r="D2" s="281"/>
-      <c r="E2" s="281"/>
-      <c r="F2" s="281"/>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
+      <c r="C2" s="288"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="288"/>
+      <c r="F2" s="288"/>
+      <c r="G2" s="288"/>
+      <c r="H2" s="288"/>
       <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="174"/>
-      <c r="C3" s="271" t="s">
+      <c r="C3" s="278" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="272"/>
-      <c r="E3" s="272"/>
-      <c r="F3" s="272"/>
-      <c r="G3" s="272"/>
-      <c r="H3" s="273"/>
+      <c r="D3" s="279"/>
+      <c r="E3" s="279"/>
+      <c r="F3" s="279"/>
+      <c r="G3" s="279"/>
+      <c r="H3" s="280"/>
       <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
-      <c r="B4" s="279" t="s">
+      <c r="B4" s="286" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="274" t="s">
+      <c r="C4" s="281" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="274"/>
-      <c r="E4" s="274" t="s">
+      <c r="D4" s="281"/>
+      <c r="E4" s="281" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="274"/>
-      <c r="G4" s="277" t="s">
+      <c r="F4" s="281"/>
+      <c r="G4" s="284" t="s">
         <v>181</v>
       </c>
-      <c r="H4" s="278"/>
+      <c r="H4" s="285"/>
       <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
-      <c r="B5" s="279"/>
-      <c r="C5" s="274"/>
-      <c r="D5" s="274"/>
-      <c r="E5" s="274"/>
-      <c r="F5" s="274"/>
+      <c r="B5" s="286"/>
+      <c r="C5" s="281"/>
+      <c r="D5" s="281"/>
+      <c r="E5" s="281"/>
+      <c r="F5" s="281"/>
       <c r="G5" s="161" t="s">
         <v>179</v>
       </c>
@@ -5945,7 +6115,7 @@
     </row>
     <row r="6" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
-      <c r="B6" s="279"/>
+      <c r="B6" s="286"/>
       <c r="C6" s="177" t="s">
         <v>175</v>
       </c>
@@ -6132,15 +6302,15 @@
     </row>
     <row r="11" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
-      <c r="B11" s="276" t="s">
+      <c r="B11" s="283" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="276"/>
-      <c r="D11" s="276"/>
-      <c r="E11" s="276"/>
-      <c r="F11" s="276"/>
-      <c r="G11" s="276"/>
-      <c r="H11" s="276"/>
+      <c r="C11" s="283"/>
+      <c r="D11" s="283"/>
+      <c r="E11" s="283"/>
+      <c r="F11" s="283"/>
+      <c r="G11" s="283"/>
+      <c r="H11" s="283"/>
       <c r="I11" s="27"/>
       <c r="J11">
         <v>0.42949999999999999</v>
@@ -6282,7 +6452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBADEDF-B83D-46AD-B5BF-06E15F6E8C99}">
   <dimension ref="A1:M11"/>
   <sheetViews>
@@ -6302,33 +6472,33 @@
   <sheetData>
     <row r="1" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="285" t="s">
+      <c r="B2" s="292" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="286"/>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286"/>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286"/>
+      <c r="C2" s="293"/>
+      <c r="D2" s="293"/>
+      <c r="E2" s="293"/>
+      <c r="F2" s="293"/>
+      <c r="G2" s="293"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="2:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="128"/>
       <c r="C3" s="129"/>
-      <c r="D3" s="271" t="s">
+      <c r="D3" s="278" t="s">
         <v>163</v>
       </c>
-      <c r="E3" s="283" t="s">
+      <c r="E3" s="290" t="s">
         <v>148</v>
       </c>
-      <c r="F3" s="283"/>
-      <c r="G3" s="284"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="291"/>
     </row>
     <row r="4" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="154"/>
       <c r="C4" s="152"/>
-      <c r="D4" s="287"/>
+      <c r="D4" s="294"/>
       <c r="E4" s="149" t="s">
         <v>132</v>
       </c>
@@ -6340,7 +6510,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="288" t="s">
+      <c r="B5" s="295" t="s">
         <v>138</v>
       </c>
       <c r="C5" s="166" t="s">
@@ -6372,7 +6542,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="288"/>
+      <c r="B6" s="295"/>
       <c r="C6" s="166" t="s">
         <v>151</v>
       </c>
@@ -6422,7 +6592,7 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="288" t="s">
+      <c r="B8" s="295" t="s">
         <v>139</v>
       </c>
       <c r="C8" s="166" t="s">
@@ -6454,7 +6624,7 @@
       </c>
     </row>
     <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="289"/>
+      <c r="B9" s="296"/>
       <c r="C9" s="167" t="s">
         <v>151</v>
       </c>
@@ -6472,14 +6642,14 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="282" t="s">
+      <c r="B10" s="289" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="282"/>
-      <c r="D10" s="282"/>
-      <c r="E10" s="282"/>
-      <c r="F10" s="282"/>
-      <c r="G10" s="282"/>
+      <c r="C10" s="289"/>
+      <c r="D10" s="289"/>
+      <c r="E10" s="289"/>
+      <c r="F10" s="289"/>
+      <c r="G10" s="289"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
@@ -6502,7 +6672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C16611-5E48-4B16-A92D-F0B35D980A64}">
   <dimension ref="A2:L19"/>
   <sheetViews>
@@ -6519,13 +6689,13 @@
   <sheetData>
     <row r="2" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="290" t="s">
+      <c r="B2" s="297" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="290"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="290"/>
-      <c r="F2" s="290"/>
+      <c r="C2" s="297"/>
+      <c r="D2" s="297"/>
+      <c r="E2" s="297"/>
+      <c r="F2" s="297"/>
       <c r="G2" s="168"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -6534,11 +6704,11 @@
       <c r="A3" s="7"/>
       <c r="B3" s="128"/>
       <c r="C3" s="129"/>
-      <c r="D3" s="271" t="s">
+      <c r="D3" s="278" t="s">
         <v>166</v>
       </c>
-      <c r="E3" s="271"/>
-      <c r="F3" s="291"/>
+      <c r="E3" s="278"/>
+      <c r="F3" s="298"/>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -6558,7 +6728,7 @@
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="288" t="s">
+      <c r="B5" s="295" t="s">
         <v>138</v>
       </c>
       <c r="C5" s="166" t="s">
@@ -6589,7 +6759,7 @@
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="288"/>
+      <c r="B6" s="295"/>
       <c r="C6" s="166" t="s">
         <v>151</v>
       </c>
@@ -6639,7 +6809,7 @@
     </row>
     <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="288" t="s">
+      <c r="B8" s="295" t="s">
         <v>139</v>
       </c>
       <c r="C8" s="166" t="s">
@@ -6670,7 +6840,7 @@
     </row>
     <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="289"/>
+      <c r="B9" s="296"/>
       <c r="C9" s="167" t="s">
         <v>151</v>
       </c>
@@ -6687,13 +6857,13 @@
     </row>
     <row r="10" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="282" t="s">
+      <c r="B10" s="289" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="282"/>
-      <c r="D10" s="282"/>
-      <c r="E10" s="282"/>
-      <c r="F10" s="282"/>
+      <c r="C10" s="289"/>
+      <c r="D10" s="289"/>
+      <c r="E10" s="289"/>
+      <c r="F10" s="289"/>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -6785,7 +6955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98BBA0ED-A2B5-4FB8-80F2-7DD4B0EDAE27}">
   <dimension ref="A1:N31"/>
   <sheetViews>
@@ -6805,22 +6975,22 @@
   <sheetData>
     <row r="1" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="290" t="s">
+      <c r="B2" s="297" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="294"/>
-      <c r="D2" s="294"/>
-      <c r="E2" s="294"/>
-      <c r="F2" s="294"/>
-      <c r="G2" s="294"/>
-      <c r="H2" s="294"/>
+      <c r="C2" s="299"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="299"/>
+      <c r="F2" s="299"/>
+      <c r="G2" s="299"/>
+      <c r="H2" s="299"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="128"/>
       <c r="C3" s="129"/>
-      <c r="D3" s="271" t="s">
+      <c r="D3" s="278" t="s">
         <v>149</v>
       </c>
       <c r="E3" s="140" t="s">
@@ -6829,15 +6999,15 @@
       <c r="F3" s="140" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="271" t="s">
+      <c r="G3" s="278" t="s">
         <v>152</v>
       </c>
-      <c r="H3" s="291"/>
+      <c r="H3" s="298"/>
     </row>
     <row r="4" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="154"/>
       <c r="C4" s="152"/>
-      <c r="D4" s="287"/>
+      <c r="D4" s="294"/>
       <c r="E4" s="131" t="s">
         <v>142</v>
       </c>
@@ -6852,7 +7022,7 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="288" t="s">
+      <c r="B5" s="295" t="s">
         <v>150</v>
       </c>
       <c r="C5" s="155" t="s">
@@ -6891,7 +7061,7 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="292"/>
+      <c r="B6" s="300"/>
       <c r="C6" s="155" t="s">
         <v>139</v>
       </c>
@@ -6949,7 +7119,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="288" t="s">
+      <c r="B8" s="295" t="s">
         <v>151</v>
       </c>
       <c r="C8" s="155" t="s">
@@ -6988,7 +7158,7 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="293"/>
+      <c r="B9" s="301"/>
       <c r="C9" s="157" t="s">
         <v>139</v>
       </c>
@@ -7013,15 +7183,15 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="282" t="s">
+      <c r="B10" s="289" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="282"/>
-      <c r="D10" s="282"/>
-      <c r="E10" s="282"/>
-      <c r="F10" s="282"/>
-      <c r="G10" s="282"/>
-      <c r="H10" s="282"/>
+      <c r="C10" s="289"/>
+      <c r="D10" s="289"/>
+      <c r="E10" s="289"/>
+      <c r="F10" s="289"/>
+      <c r="G10" s="289"/>
+      <c r="H10" s="289"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
@@ -7036,20 +7206,20 @@
     <row r="13" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="290" t="s">
+      <c r="B15" s="297" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="294"/>
-      <c r="D15" s="294"/>
-      <c r="E15" s="294"/>
-      <c r="F15" s="294"/>
-      <c r="G15" s="294"/>
-      <c r="H15" s="294"/>
+      <c r="C15" s="299"/>
+      <c r="D15" s="299"/>
+      <c r="E15" s="299"/>
+      <c r="F15" s="299"/>
+      <c r="G15" s="299"/>
+      <c r="H15" s="299"/>
     </row>
     <row r="16" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="128"/>
       <c r="C16" s="129"/>
-      <c r="D16" s="271" t="s">
+      <c r="D16" s="278" t="s">
         <v>149</v>
       </c>
       <c r="E16" s="140" t="s">
@@ -7058,15 +7228,15 @@
       <c r="F16" s="140" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="271" t="s">
+      <c r="G16" s="278" t="s">
         <v>152</v>
       </c>
-      <c r="H16" s="291"/>
+      <c r="H16" s="298"/>
     </row>
     <row r="17" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="130"/>
       <c r="C17" s="93"/>
-      <c r="D17" s="287"/>
+      <c r="D17" s="294"/>
       <c r="E17" s="131" t="s">
         <v>142</v>
       </c>
@@ -7081,7 +7251,7 @@
       </c>
     </row>
     <row r="18" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="288" t="s">
+      <c r="B18" s="295" t="s">
         <v>150</v>
       </c>
       <c r="C18" s="155" t="s">
@@ -7120,7 +7290,7 @@
       </c>
     </row>
     <row r="19" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="292"/>
+      <c r="B19" s="300"/>
       <c r="C19" s="155" t="s">
         <v>139</v>
       </c>
@@ -7178,7 +7348,7 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="288" t="s">
+      <c r="B21" s="295" t="s">
         <v>151</v>
       </c>
       <c r="C21" s="155" t="s">
@@ -7217,7 +7387,7 @@
       </c>
     </row>
     <row r="22" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="293"/>
+      <c r="B22" s="301"/>
       <c r="C22" s="157" t="s">
         <v>139</v>
       </c>
@@ -7242,15 +7412,15 @@
       </c>
     </row>
     <row r="23" spans="2:14" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="282" t="s">
+      <c r="B23" s="289" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="282"/>
-      <c r="D23" s="282"/>
-      <c r="E23" s="282"/>
-      <c r="F23" s="282"/>
-      <c r="G23" s="282"/>
-      <c r="H23" s="282"/>
+      <c r="C23" s="289"/>
+      <c r="D23" s="289"/>
+      <c r="E23" s="289"/>
+      <c r="F23" s="289"/>
+      <c r="G23" s="289"/>
+      <c r="H23" s="289"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
@@ -7350,11 +7520,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:H23"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="B5:B6"/>
@@ -7362,342 +7527,11 @@
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D16:D17"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5020AD-1954-4ED3-85EA-DC4DA14EE02C}">
-  <dimension ref="A2:M19"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="7" width="21.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="290" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="294"/>
-      <c r="D2" s="294"/>
-      <c r="E2" s="294"/>
-      <c r="F2" s="294"/>
-      <c r="G2" s="294"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="140" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="140" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" s="271" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3" s="291"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="131" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="131" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" s="131" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4" s="132" t="s">
-        <v>134</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="295" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="93" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="133">
-        <f>J5</f>
-        <v>0.4995</v>
-      </c>
-      <c r="E5" s="133">
-        <f t="shared" ref="E5:G6" si="0">K5</f>
-        <v>0.42149999999999999</v>
-      </c>
-      <c r="F5" s="133">
-        <f t="shared" si="0"/>
-        <v>0.36849999999999999</v>
-      </c>
-      <c r="G5" s="134">
-        <f t="shared" si="0"/>
-        <v>0.33400000000000002</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="J5">
-        <v>0.4995</v>
-      </c>
-      <c r="K5">
-        <v>0.42149999999999999</v>
-      </c>
-      <c r="L5">
-        <v>0.36849999999999999</v>
-      </c>
-      <c r="M5">
-        <v>0.33400000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="295"/>
-      <c r="C6" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="133">
-        <f>J6</f>
-        <v>5.9499999999999997E-2</v>
-      </c>
-      <c r="E6" s="133">
-        <f t="shared" si="0"/>
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="F6" s="133">
-        <f t="shared" si="0"/>
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="G6" s="134">
-        <f t="shared" si="0"/>
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="J6">
-        <v>5.9499999999999997E-2</v>
-      </c>
-      <c r="K6">
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="L6">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="M6">
-        <v>5.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="7"/>
-      <c r="J7">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="K7">
-        <v>0.4</v>
-      </c>
-      <c r="L7">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="M7">
-        <v>0.34050000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="295" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="93" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="133">
-        <f>J7</f>
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="E8" s="133">
-        <f t="shared" ref="E8:G9" si="1">K7</f>
-        <v>0.4</v>
-      </c>
-      <c r="F8" s="133">
-        <f t="shared" si="1"/>
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="G8" s="134">
-        <f t="shared" si="1"/>
-        <v>0.34050000000000002</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="J8">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="K8">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="L8">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="M8">
-        <v>7.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="296"/>
-      <c r="C9" s="136" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="137">
-        <f>J8</f>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="E9" s="137">
-        <f t="shared" si="1"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F9" s="137">
-        <f t="shared" si="1"/>
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="G9" s="138">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="282" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="282"/>
-      <c r="D10" s="282"/>
-      <c r="E10" s="282"/>
-      <c r="F10" s="282"/>
-      <c r="G10" s="282"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="D16">
-        <v>0.4995</v>
-      </c>
-      <c r="E16">
-        <v>0.42149999999999999</v>
-      </c>
-      <c r="F16">
-        <v>0.36849999999999999</v>
-      </c>
-      <c r="G16">
-        <v>0.33400000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="D17">
-        <v>5.9499999999999997E-2</v>
-      </c>
-      <c r="E17">
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="F17">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="G17">
-        <v>5.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="D18">
-        <v>0.50349999999999995</v>
-      </c>
-      <c r="E18">
-        <v>0.435</v>
-      </c>
-      <c r="F18">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="G18">
-        <v>0.36799999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D19">
-        <v>7.5499999999999998E-2</v>
-      </c>
-      <c r="E19">
-        <v>2.3E-2</v>
-      </c>
-      <c r="F19">
-        <v>1.15E-2</v>
-      </c>
-      <c r="G19">
-        <v>0.01</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7728,12 +7562,12 @@
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="231" t="s">
+      <c r="C3" s="238" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="231"/>
-      <c r="E3" s="231"/>
-      <c r="F3" s="231"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7816,12 +7650,12 @@
     <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="103"/>
-      <c r="C9" s="232" t="s">
+      <c r="C9" s="239" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="232"/>
-      <c r="E9" s="232"/>
-      <c r="F9" s="232"/>
+      <c r="D9" s="239"/>
+      <c r="E9" s="239"/>
+      <c r="F9" s="239"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -7931,6 +7765,342 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5020AD-1954-4ED3-85EA-DC4DA14EE02C}">
+  <dimension ref="A2:M19"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="7" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="297" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="299"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="299"/>
+      <c r="F2" s="299"/>
+      <c r="G2" s="299"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="140" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="140" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="278" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="298"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="131" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="131" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="131" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="132" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="302" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="133">
+        <f>J5</f>
+        <v>0.4995</v>
+      </c>
+      <c r="E5" s="133">
+        <f t="shared" ref="E5:G6" si="0">K5</f>
+        <v>0.42149999999999999</v>
+      </c>
+      <c r="F5" s="133">
+        <f t="shared" si="0"/>
+        <v>0.36849999999999999</v>
+      </c>
+      <c r="G5" s="134">
+        <f t="shared" si="0"/>
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="J5">
+        <v>0.4995</v>
+      </c>
+      <c r="K5">
+        <v>0.42149999999999999</v>
+      </c>
+      <c r="L5">
+        <v>0.36849999999999999</v>
+      </c>
+      <c r="M5">
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="302"/>
+      <c r="C6" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="133">
+        <f>J6</f>
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="E6" s="133">
+        <f t="shared" si="0"/>
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="F6" s="133">
+        <f t="shared" si="0"/>
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="G6" s="134">
+        <f t="shared" si="0"/>
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="J6">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="K6">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="L6">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="M6">
+        <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="7"/>
+      <c r="J7">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="K7">
+        <v>0.4</v>
+      </c>
+      <c r="L7">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="M7">
+        <v>0.34050000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="302" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="133">
+        <f>J7</f>
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="E8" s="133">
+        <f t="shared" ref="E8:G9" si="1">K7</f>
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="133">
+        <f t="shared" si="1"/>
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="G8" s="134">
+        <f t="shared" si="1"/>
+        <v>0.34050000000000002</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="J8">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="K8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L8">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="M8">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="303"/>
+      <c r="C9" s="136" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="137">
+        <f>J8</f>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E9" s="137">
+        <f t="shared" si="1"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F9" s="137">
+        <f t="shared" si="1"/>
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="G9" s="138">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="289" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="289"/>
+      <c r="D10" s="289"/>
+      <c r="E10" s="289"/>
+      <c r="F10" s="289"/>
+      <c r="G10" s="289"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="D16">
+        <v>0.4995</v>
+      </c>
+      <c r="E16">
+        <v>0.42149999999999999</v>
+      </c>
+      <c r="F16">
+        <v>0.36849999999999999</v>
+      </c>
+      <c r="G16">
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="D17">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="E17">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="F17">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="G17">
+        <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="D18">
+        <v>0.50349999999999995</v>
+      </c>
+      <c r="E18">
+        <v>0.435</v>
+      </c>
+      <c r="F18">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="G18">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="E19">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F19">
+        <v>1.15E-2</v>
+      </c>
+      <c r="G19">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8FA9C4-3694-44C3-BB3F-70E2450981AF}">
   <dimension ref="A2:M10"/>
   <sheetViews>
@@ -8080,14 +8250,14 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="250" t="s">
+      <c r="B7" s="265" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="250"/>
-      <c r="D7" s="250"/>
-      <c r="E7" s="250"/>
-      <c r="F7" s="250"/>
-      <c r="G7" s="250"/>
+      <c r="C7" s="265"/>
+      <c r="D7" s="265"/>
+      <c r="E7" s="265"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="265"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J8" s="141">
@@ -8145,11 +8315,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67F7438-5633-4C39-84B2-8AC65134E8C4}">
   <dimension ref="A2:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -8291,14 +8461,14 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="250" t="s">
+      <c r="B7" s="265" t="s">
         <v>330</v>
       </c>
-      <c r="C7" s="250"/>
-      <c r="D7" s="250"/>
-      <c r="E7" s="250"/>
-      <c r="F7" s="250"/>
-      <c r="G7" s="250"/>
+      <c r="C7" s="265"/>
+      <c r="D7" s="265"/>
+      <c r="E7" s="265"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="265"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J8" s="141">
@@ -8356,7 +8526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400C3BFD-8552-4762-8482-18979756C071}">
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -8603,7 +8773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A2CBE0-AF60-4563-9A47-BEE291487850}">
   <dimension ref="A1:N58"/>
   <sheetViews>
@@ -8635,71 +8805,71 @@
     </row>
     <row r="2" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="246" t="s">
+      <c r="B2" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="247"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="241"/>
+      <c r="F2" s="241"/>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="241"/>
+      <c r="J2" s="241"/>
+      <c r="K2" s="241"/>
+      <c r="L2" s="241"/>
       <c r="M2" s="27"/>
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="243" t="s">
+      <c r="C3" s="242" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="244"/>
-      <c r="E3" s="243" t="s">
+      <c r="D3" s="243"/>
+      <c r="E3" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="244"/>
-      <c r="G3" s="243" t="s">
+      <c r="F3" s="243"/>
+      <c r="G3" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="244"/>
-      <c r="I3" s="243" t="s">
+      <c r="H3" s="243"/>
+      <c r="I3" s="242" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="244"/>
-      <c r="K3" s="243" t="s">
+      <c r="J3" s="243"/>
+      <c r="K3" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="244"/>
+      <c r="L3" s="243"/>
       <c r="M3" s="27"/>
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="30"/>
-      <c r="C4" s="231" t="s">
+      <c r="C4" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="244"/>
-      <c r="E4" s="239" t="s">
+      <c r="D4" s="243"/>
+      <c r="E4" s="245" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="238"/>
-      <c r="G4" s="237" t="s">
+      <c r="F4" s="246"/>
+      <c r="G4" s="247" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="238"/>
-      <c r="I4" s="239" t="s">
+      <c r="H4" s="246"/>
+      <c r="I4" s="245" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="238"/>
-      <c r="K4" s="237" t="s">
+      <c r="J4" s="246"/>
+      <c r="K4" s="247" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="237"/>
+      <c r="L4" s="247"/>
       <c r="M4" s="27"/>
       <c r="N4" s="7"/>
     </row>
@@ -8990,26 +9160,26 @@
       <c r="B16" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="240">
+      <c r="C16" s="248">
         <v>38</v>
       </c>
-      <c r="D16" s="241"/>
-      <c r="E16" s="242">
+      <c r="D16" s="249"/>
+      <c r="E16" s="250">
         <v>38</v>
       </c>
-      <c r="F16" s="241"/>
-      <c r="G16" s="240">
+      <c r="F16" s="249"/>
+      <c r="G16" s="248">
         <v>38</v>
       </c>
-      <c r="H16" s="241"/>
-      <c r="I16" s="242">
+      <c r="H16" s="249"/>
+      <c r="I16" s="250">
         <v>38</v>
       </c>
-      <c r="J16" s="241"/>
-      <c r="K16" s="240">
+      <c r="J16" s="249"/>
+      <c r="K16" s="248">
         <v>38</v>
       </c>
-      <c r="L16" s="240"/>
+      <c r="L16" s="248"/>
       <c r="M16" s="27"/>
       <c r="N16" s="7"/>
     </row>
@@ -9018,44 +9188,44 @@
       <c r="B17" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="234">
+      <c r="C17" s="251">
         <v>0.30566541074933518</v>
       </c>
-      <c r="D17" s="235"/>
-      <c r="E17" s="236">
+      <c r="D17" s="252"/>
+      <c r="E17" s="253">
         <v>0.29069709635633112</v>
       </c>
-      <c r="F17" s="235"/>
-      <c r="G17" s="234">
+      <c r="F17" s="252"/>
+      <c r="G17" s="251">
         <v>0.72602714664401657</v>
       </c>
-      <c r="H17" s="235"/>
-      <c r="I17" s="236">
+      <c r="H17" s="252"/>
+      <c r="I17" s="253">
         <v>0.79510827890217706</v>
       </c>
-      <c r="J17" s="235"/>
-      <c r="K17" s="234">
+      <c r="J17" s="252"/>
+      <c r="K17" s="251">
         <v>0.7906694981397554</v>
       </c>
-      <c r="L17" s="234"/>
+      <c r="L17" s="251"/>
       <c r="M17" s="27"/>
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
-      <c r="B18" s="246" t="s">
+      <c r="B18" s="240" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="247"/>
-      <c r="D18" s="247"/>
-      <c r="E18" s="247"/>
-      <c r="F18" s="247"/>
-      <c r="G18" s="247"/>
-      <c r="H18" s="247"/>
-      <c r="I18" s="247"/>
-      <c r="J18" s="247"/>
-      <c r="K18" s="247"/>
-      <c r="L18" s="247"/>
+      <c r="C18" s="241"/>
+      <c r="D18" s="241"/>
+      <c r="E18" s="241"/>
+      <c r="F18" s="241"/>
+      <c r="G18" s="241"/>
+      <c r="H18" s="241"/>
+      <c r="I18" s="241"/>
+      <c r="J18" s="241"/>
+      <c r="K18" s="241"/>
+      <c r="L18" s="241"/>
       <c r="M18" s="27"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -9065,18 +9235,18 @@
       <c r="D19" s="24"/>
       <c r="E19" s="17"/>
       <c r="F19" s="52"/>
-      <c r="G19" s="243" t="s">
+      <c r="G19" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="244"/>
-      <c r="I19" s="243" t="s">
+      <c r="H19" s="243"/>
+      <c r="I19" s="242" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="244"/>
-      <c r="K19" s="243" t="s">
+      <c r="J19" s="243"/>
+      <c r="K19" s="242" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="244"/>
+      <c r="L19" s="243"/>
       <c r="M19" s="27"/>
     </row>
     <row r="20" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9086,18 +9256,18 @@
       <c r="D20" s="24"/>
       <c r="E20" s="17"/>
       <c r="F20" s="52"/>
-      <c r="G20" s="245" t="s">
+      <c r="G20" s="254" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="244"/>
-      <c r="I20" s="239" t="s">
+      <c r="H20" s="243"/>
+      <c r="I20" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="238"/>
-      <c r="K20" s="237" t="s">
+      <c r="J20" s="246"/>
+      <c r="K20" s="247" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="237"/>
+      <c r="L20" s="247"/>
       <c r="M20" s="27"/>
     </row>
     <row r="21" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -9344,18 +9514,18 @@
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="54"/>
-      <c r="G32" s="242">
+      <c r="G32" s="250">
         <v>38</v>
       </c>
-      <c r="H32" s="241"/>
-      <c r="I32" s="242">
+      <c r="H32" s="249"/>
+      <c r="I32" s="250">
         <v>38</v>
       </c>
-      <c r="J32" s="241"/>
-      <c r="K32" s="240">
+      <c r="J32" s="249"/>
+      <c r="K32" s="248">
         <v>38</v>
       </c>
-      <c r="L32" s="240"/>
+      <c r="L32" s="248"/>
       <c r="M32" s="27"/>
     </row>
     <row r="33" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9367,18 +9537,18 @@
       <c r="D33" s="76"/>
       <c r="E33" s="76"/>
       <c r="F33" s="55"/>
-      <c r="G33" s="236">
+      <c r="G33" s="253">
         <v>0.48341395624872252</v>
       </c>
-      <c r="H33" s="235"/>
-      <c r="I33" s="236">
+      <c r="H33" s="252"/>
+      <c r="I33" s="253">
         <v>0.53998913899059575</v>
       </c>
-      <c r="J33" s="235"/>
-      <c r="K33" s="234">
+      <c r="J33" s="252"/>
+      <c r="K33" s="251">
         <v>0.55376503919168529</v>
       </c>
-      <c r="L33" s="234"/>
+      <c r="L33" s="251"/>
       <c r="M33" s="27"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -9469,12 +9639,12 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B45" s="24"/>
-      <c r="G45" s="237"/>
-      <c r="H45" s="238"/>
-      <c r="I45" s="239"/>
-      <c r="J45" s="238"/>
-      <c r="K45" s="237"/>
-      <c r="L45" s="237"/>
+      <c r="G45" s="247"/>
+      <c r="H45" s="246"/>
+      <c r="I45" s="245"/>
+      <c r="J45" s="246"/>
+      <c r="K45" s="247"/>
+      <c r="L45" s="247"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B46" s="24"/>
@@ -9573,29 +9743,44 @@
       <c r="L56" s="19"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G57" s="240"/>
-      <c r="H57" s="241"/>
-      <c r="I57" s="242"/>
-      <c r="J57" s="241"/>
-      <c r="K57" s="240"/>
-      <c r="L57" s="240"/>
+      <c r="G57" s="248"/>
+      <c r="H57" s="249"/>
+      <c r="I57" s="250"/>
+      <c r="J57" s="249"/>
+      <c r="K57" s="248"/>
+      <c r="L57" s="248"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G58" s="234"/>
-      <c r="H58" s="235"/>
-      <c r="I58" s="236"/>
-      <c r="J58" s="235"/>
-      <c r="K58" s="234"/>
-      <c r="L58" s="234"/>
+      <c r="G58" s="251"/>
+      <c r="H58" s="252"/>
+      <c r="I58" s="253"/>
+      <c r="J58" s="252"/>
+      <c r="K58" s="251"/>
+      <c r="L58" s="251"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="B18:L18"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
@@ -9612,34 +9797,19 @@
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="K17:L17"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I29"/>
   <sheetViews>
@@ -9659,14 +9829,14 @@
   <sheetData>
     <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="297" t="s">
+      <c r="B2" s="304" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="297"/>
-      <c r="D2" s="297"/>
-      <c r="E2" s="297"/>
-      <c r="F2" s="297"/>
-      <c r="G2" s="297"/>
+      <c r="C2" s="304"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="304"/>
+      <c r="F2" s="304"/>
+      <c r="G2" s="304"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
@@ -9934,14 +10104,14 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="297" t="s">
+      <c r="B16" s="304" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="297"/>
-      <c r="D16" s="297"/>
-      <c r="E16" s="297"/>
-      <c r="F16" s="297"/>
-      <c r="G16" s="297"/>
+      <c r="C16" s="304"/>
+      <c r="D16" s="304"/>
+      <c r="E16" s="304"/>
+      <c r="F16" s="304"/>
+      <c r="G16" s="304"/>
     </row>
     <row r="17" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
@@ -10137,7 +10307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F644A70-15E8-470C-9476-7BBEB7370E96}">
   <dimension ref="A1:N58"/>
   <sheetViews>
@@ -10169,71 +10339,71 @@
     </row>
     <row r="2" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="246" t="s">
+      <c r="B2" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="247"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="241"/>
+      <c r="F2" s="241"/>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="241"/>
+      <c r="J2" s="241"/>
+      <c r="K2" s="241"/>
+      <c r="L2" s="241"/>
       <c r="M2" s="27"/>
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="243" t="s">
+      <c r="C3" s="242" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="244"/>
-      <c r="E3" s="243" t="s">
+      <c r="D3" s="243"/>
+      <c r="E3" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="244"/>
-      <c r="G3" s="243" t="s">
+      <c r="F3" s="243"/>
+      <c r="G3" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="244"/>
-      <c r="I3" s="243" t="s">
+      <c r="H3" s="243"/>
+      <c r="I3" s="242" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="244"/>
-      <c r="K3" s="243" t="s">
+      <c r="J3" s="243"/>
+      <c r="K3" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="244"/>
+      <c r="L3" s="243"/>
       <c r="M3" s="27"/>
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="30"/>
-      <c r="C4" s="231" t="s">
+      <c r="C4" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="244"/>
-      <c r="E4" s="239" t="s">
+      <c r="D4" s="243"/>
+      <c r="E4" s="245" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="238"/>
-      <c r="G4" s="237" t="s">
+      <c r="F4" s="246"/>
+      <c r="G4" s="247" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="238"/>
-      <c r="I4" s="239" t="s">
+      <c r="H4" s="246"/>
+      <c r="I4" s="245" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="238"/>
-      <c r="K4" s="237" t="s">
+      <c r="J4" s="246"/>
+      <c r="K4" s="247" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="237"/>
+      <c r="L4" s="247"/>
       <c r="M4" s="27"/>
       <c r="N4" s="7"/>
     </row>
@@ -10524,26 +10694,26 @@
       <c r="B16" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="240">
+      <c r="C16" s="248">
         <v>38</v>
       </c>
-      <c r="D16" s="241"/>
-      <c r="E16" s="242">
+      <c r="D16" s="249"/>
+      <c r="E16" s="250">
         <v>38</v>
       </c>
-      <c r="F16" s="241"/>
-      <c r="G16" s="240">
+      <c r="F16" s="249"/>
+      <c r="G16" s="248">
         <v>38</v>
       </c>
-      <c r="H16" s="241"/>
-      <c r="I16" s="242">
+      <c r="H16" s="249"/>
+      <c r="I16" s="250">
         <v>38</v>
       </c>
-      <c r="J16" s="241"/>
-      <c r="K16" s="240">
+      <c r="J16" s="249"/>
+      <c r="K16" s="248">
         <v>38</v>
       </c>
-      <c r="L16" s="240"/>
+      <c r="L16" s="248"/>
       <c r="M16" s="27"/>
       <c r="N16" s="7"/>
     </row>
@@ -10552,44 +10722,44 @@
       <c r="B17" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="234">
+      <c r="C17" s="251">
         <v>0.30566541074933518</v>
       </c>
-      <c r="D17" s="235"/>
-      <c r="E17" s="236">
+      <c r="D17" s="252"/>
+      <c r="E17" s="253">
         <v>0.29069709635633112</v>
       </c>
-      <c r="F17" s="235"/>
-      <c r="G17" s="234">
+      <c r="F17" s="252"/>
+      <c r="G17" s="251">
         <v>0.72602714664401657</v>
       </c>
-      <c r="H17" s="235"/>
-      <c r="I17" s="236">
+      <c r="H17" s="252"/>
+      <c r="I17" s="253">
         <v>0.79510827890217706</v>
       </c>
-      <c r="J17" s="235"/>
-      <c r="K17" s="234">
+      <c r="J17" s="252"/>
+      <c r="K17" s="251">
         <v>0.7906694981397554</v>
       </c>
-      <c r="L17" s="234"/>
+      <c r="L17" s="251"/>
       <c r="M17" s="27"/>
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
-      <c r="B18" s="246" t="s">
+      <c r="B18" s="240" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="247"/>
-      <c r="D18" s="247"/>
-      <c r="E18" s="247"/>
-      <c r="F18" s="247"/>
-      <c r="G18" s="247"/>
-      <c r="H18" s="247"/>
-      <c r="I18" s="247"/>
-      <c r="J18" s="247"/>
-      <c r="K18" s="247"/>
-      <c r="L18" s="247"/>
+      <c r="C18" s="241"/>
+      <c r="D18" s="241"/>
+      <c r="E18" s="241"/>
+      <c r="F18" s="241"/>
+      <c r="G18" s="241"/>
+      <c r="H18" s="241"/>
+      <c r="I18" s="241"/>
+      <c r="J18" s="241"/>
+      <c r="K18" s="241"/>
+      <c r="L18" s="241"/>
       <c r="M18" s="27"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -10599,18 +10769,18 @@
       <c r="D19" s="24"/>
       <c r="E19" s="17"/>
       <c r="F19" s="52"/>
-      <c r="G19" s="243" t="s">
+      <c r="G19" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="244"/>
-      <c r="I19" s="243" t="s">
+      <c r="H19" s="243"/>
+      <c r="I19" s="242" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="244"/>
-      <c r="K19" s="243" t="s">
+      <c r="J19" s="243"/>
+      <c r="K19" s="242" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="244"/>
+      <c r="L19" s="243"/>
       <c r="M19" s="27"/>
     </row>
     <row r="20" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10620,18 +10790,18 @@
       <c r="D20" s="24"/>
       <c r="E20" s="17"/>
       <c r="F20" s="52"/>
-      <c r="G20" s="245" t="s">
+      <c r="G20" s="254" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="244"/>
-      <c r="I20" s="239" t="s">
+      <c r="H20" s="243"/>
+      <c r="I20" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="238"/>
-      <c r="K20" s="237" t="s">
+      <c r="J20" s="246"/>
+      <c r="K20" s="247" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="237"/>
+      <c r="L20" s="247"/>
       <c r="M20" s="27"/>
     </row>
     <row r="21" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -10878,18 +11048,18 @@
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="54"/>
-      <c r="G32" s="242">
+      <c r="G32" s="250">
         <v>38</v>
       </c>
-      <c r="H32" s="241"/>
-      <c r="I32" s="242">
+      <c r="H32" s="249"/>
+      <c r="I32" s="250">
         <v>38</v>
       </c>
-      <c r="J32" s="241"/>
-      <c r="K32" s="240">
+      <c r="J32" s="249"/>
+      <c r="K32" s="248">
         <v>38</v>
       </c>
-      <c r="L32" s="240"/>
+      <c r="L32" s="248"/>
       <c r="M32" s="27"/>
     </row>
     <row r="33" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10901,18 +11071,18 @@
       <c r="D33" s="41"/>
       <c r="E33" s="41"/>
       <c r="F33" s="55"/>
-      <c r="G33" s="236">
+      <c r="G33" s="253">
         <v>0.48341395624872252</v>
       </c>
-      <c r="H33" s="235"/>
-      <c r="I33" s="236">
+      <c r="H33" s="252"/>
+      <c r="I33" s="253">
         <v>0.53998913899059575</v>
       </c>
-      <c r="J33" s="235"/>
-      <c r="K33" s="234">
+      <c r="J33" s="252"/>
+      <c r="K33" s="251">
         <v>0.55376503919168529</v>
       </c>
-      <c r="L33" s="234"/>
+      <c r="L33" s="251"/>
       <c r="M33" s="27"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -11003,12 +11173,12 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B45" s="24"/>
-      <c r="G45" s="237"/>
-      <c r="H45" s="238"/>
-      <c r="I45" s="239"/>
-      <c r="J45" s="238"/>
-      <c r="K45" s="237"/>
-      <c r="L45" s="237"/>
+      <c r="G45" s="247"/>
+      <c r="H45" s="246"/>
+      <c r="I45" s="245"/>
+      <c r="J45" s="246"/>
+      <c r="K45" s="247"/>
+      <c r="L45" s="247"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B46" s="24"/>
@@ -11107,23 +11277,50 @@
       <c r="L56" s="19"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G57" s="240"/>
-      <c r="H57" s="241"/>
-      <c r="I57" s="242"/>
-      <c r="J57" s="241"/>
-      <c r="K57" s="240"/>
-      <c r="L57" s="240"/>
+      <c r="G57" s="248"/>
+      <c r="H57" s="249"/>
+      <c r="I57" s="250"/>
+      <c r="J57" s="249"/>
+      <c r="K57" s="248"/>
+      <c r="L57" s="248"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G58" s="234"/>
-      <c r="H58" s="235"/>
-      <c r="I58" s="236"/>
-      <c r="J58" s="235"/>
-      <c r="K58" s="234"/>
-      <c r="L58" s="234"/>
+      <c r="G58" s="251"/>
+      <c r="H58" s="252"/>
+      <c r="I58" s="253"/>
+      <c r="J58" s="252"/>
+      <c r="K58" s="251"/>
+      <c r="L58" s="251"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B18:L18"/>
     <mergeCell ref="G32:H32"/>
@@ -11140,33 +11337,6 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11176,7 +11346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4AF087E-D102-4B84-94C4-5B74DC1F0791}">
   <dimension ref="A1:I33"/>
   <sheetViews>
@@ -11208,49 +11378,49 @@
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="247" t="s">
+      <c r="B2" s="241" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="241"/>
+      <c r="F2" s="241"/>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
       <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="31"/>
-      <c r="C3" s="243" t="s">
+      <c r="C3" s="242" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="243" t="s">
+      <c r="D3" s="255"/>
+      <c r="E3" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="256"/>
-      <c r="G3" s="243" t="s">
+      <c r="F3" s="255"/>
+      <c r="G3" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="256"/>
+      <c r="H3" s="255"/>
       <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="31"/>
-      <c r="C4" s="231" t="s">
+      <c r="C4" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="256"/>
-      <c r="E4" s="257" t="s">
+      <c r="D4" s="255"/>
+      <c r="E4" s="256" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="258"/>
-      <c r="G4" s="231" t="s">
+      <c r="F4" s="257"/>
+      <c r="G4" s="238" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="231"/>
+      <c r="H4" s="238"/>
       <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11409,18 +11579,18 @@
       <c r="B14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="240">
+      <c r="C14" s="248">
         <v>38</v>
       </c>
-      <c r="D14" s="252"/>
-      <c r="E14" s="255">
+      <c r="D14" s="259"/>
+      <c r="E14" s="262">
         <v>38</v>
       </c>
-      <c r="F14" s="252"/>
-      <c r="G14" s="240">
+      <c r="F14" s="259"/>
+      <c r="G14" s="248">
         <v>38</v>
       </c>
-      <c r="H14" s="240"/>
+      <c r="H14" s="248"/>
       <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11428,65 +11598,65 @@
       <c r="B15" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="234">
+      <c r="C15" s="251">
         <v>0.55581969851319468</v>
       </c>
-      <c r="D15" s="253"/>
-      <c r="E15" s="300">
+      <c r="D15" s="260"/>
+      <c r="E15" s="310">
         <v>0.54352923406841147</v>
       </c>
-      <c r="F15" s="301"/>
-      <c r="G15" s="234">
+      <c r="F15" s="311"/>
+      <c r="G15" s="251">
         <v>0.55189173576406514</v>
       </c>
-      <c r="H15" s="234"/>
+      <c r="H15" s="251"/>
       <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
-      <c r="B16" s="247" t="s">
+      <c r="B16" s="241" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="247"/>
-      <c r="D16" s="247"/>
-      <c r="E16" s="247"/>
-      <c r="F16" s="247"/>
-      <c r="G16" s="247"/>
-      <c r="H16" s="247"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="241"/>
+      <c r="F16" s="241"/>
+      <c r="G16" s="241"/>
+      <c r="H16" s="241"/>
       <c r="I16" s="27"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="30"/>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="256"/>
-      <c r="E17" s="243" t="s">
+      <c r="D17" s="255"/>
+      <c r="E17" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="256"/>
-      <c r="G17" s="243" t="s">
+      <c r="F17" s="255"/>
+      <c r="G17" s="242" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="256"/>
+      <c r="H17" s="255"/>
       <c r="I17" s="27"/>
     </row>
     <row r="18" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="30"/>
-      <c r="C18" s="231" t="s">
+      <c r="C18" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="256"/>
-      <c r="E18" s="257" t="s">
+      <c r="D18" s="255"/>
+      <c r="E18" s="256" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="258"/>
-      <c r="G18" s="231" t="s">
+      <c r="F18" s="257"/>
+      <c r="G18" s="238" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="231"/>
+      <c r="H18" s="238"/>
       <c r="I18" s="27"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11645,18 +11815,18 @@
       <c r="B28" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="240">
+      <c r="C28" s="248">
         <v>38</v>
       </c>
-      <c r="D28" s="252"/>
-      <c r="E28" s="255">
+      <c r="D28" s="259"/>
+      <c r="E28" s="262">
         <v>38</v>
       </c>
-      <c r="F28" s="252"/>
-      <c r="G28" s="240">
+      <c r="F28" s="259"/>
+      <c r="G28" s="248">
         <v>38</v>
       </c>
-      <c r="H28" s="240"/>
+      <c r="H28" s="248"/>
       <c r="I28" s="27"/>
     </row>
     <row r="29" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11664,42 +11834,42 @@
       <c r="B29" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="304">
+      <c r="C29" s="307">
         <v>8.7068576318375279E-2</v>
       </c>
-      <c r="D29" s="303"/>
-      <c r="E29" s="302">
+      <c r="D29" s="306"/>
+      <c r="E29" s="305">
         <v>0.1066523504141621</v>
       </c>
-      <c r="F29" s="303"/>
-      <c r="G29" s="234">
+      <c r="F29" s="306"/>
+      <c r="G29" s="251">
         <v>6.1086704610555098E-2</v>
       </c>
-      <c r="H29" s="234"/>
+      <c r="H29" s="251"/>
       <c r="I29" s="27"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
-      <c r="B30" s="298" t="s">
+      <c r="B30" s="308" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="298"/>
-      <c r="D30" s="298"/>
-      <c r="E30" s="298"/>
-      <c r="F30" s="298"/>
-      <c r="G30" s="298"/>
-      <c r="H30" s="298"/>
+      <c r="C30" s="308"/>
+      <c r="D30" s="308"/>
+      <c r="E30" s="308"/>
+      <c r="F30" s="308"/>
+      <c r="G30" s="308"/>
+      <c r="H30" s="308"/>
       <c r="I30" s="27"/>
     </row>
     <row r="31" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
-      <c r="B31" s="299"/>
-      <c r="C31" s="299"/>
-      <c r="D31" s="299"/>
-      <c r="E31" s="299"/>
-      <c r="F31" s="299"/>
-      <c r="G31" s="299"/>
-      <c r="H31" s="299"/>
+      <c r="B31" s="309"/>
+      <c r="C31" s="309"/>
+      <c r="D31" s="309"/>
+      <c r="E31" s="309"/>
+      <c r="F31" s="309"/>
+      <c r="G31" s="309"/>
+      <c r="H31" s="309"/>
       <c r="I31" s="27"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -11726,17 +11896,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
@@ -11753,6 +11912,17 @@
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -11761,7 +11931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67960ACA-D433-4506-97D2-88BB510C36DA}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11775,7 +11945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C89BA0-416B-417C-AA31-30FDBB55A55B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
@@ -11810,17 +11980,17 @@
     </row>
     <row r="2" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="246" t="s">
+      <c r="B2" s="240" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="241"/>
+      <c r="F2" s="241"/>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="241"/>
+      <c r="J2" s="241"/>
       <c r="K2" s="27"/>
       <c r="L2" s="27"/>
       <c r="M2" s="27"/>
@@ -11831,22 +12001,22 @@
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="31"/>
-      <c r="C3" s="243" t="s">
+      <c r="C3" s="242" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="243" t="s">
+      <c r="D3" s="255"/>
+      <c r="E3" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="256"/>
-      <c r="G3" s="259" t="s">
+      <c r="F3" s="255"/>
+      <c r="G3" s="258" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="305"/>
-      <c r="I3" s="243" t="s">
+      <c r="H3" s="312"/>
+      <c r="I3" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="231"/>
+      <c r="J3" s="238"/>
       <c r="K3" s="27"/>
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
@@ -11857,22 +12027,22 @@
     <row r="4" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="31"/>
-      <c r="C4" s="237" t="s">
+      <c r="C4" s="247" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="256"/>
-      <c r="E4" s="257" t="s">
+      <c r="D4" s="255"/>
+      <c r="E4" s="256" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="258"/>
-      <c r="G4" s="257" t="s">
+      <c r="F4" s="257"/>
+      <c r="G4" s="256" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="258"/>
-      <c r="I4" s="257" t="s">
+      <c r="H4" s="257"/>
+      <c r="I4" s="256" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="231"/>
+      <c r="J4" s="238"/>
       <c r="K4" s="27"/>
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
@@ -12043,22 +12213,22 @@
       <c r="B10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="240">
+      <c r="C10" s="248">
         <v>31</v>
       </c>
-      <c r="D10" s="252"/>
-      <c r="E10" s="240">
+      <c r="D10" s="259"/>
+      <c r="E10" s="248">
         <v>32</v>
       </c>
-      <c r="F10" s="252"/>
-      <c r="G10" s="255">
+      <c r="F10" s="259"/>
+      <c r="G10" s="262">
         <v>21</v>
       </c>
-      <c r="H10" s="252"/>
-      <c r="I10" s="240">
+      <c r="H10" s="259"/>
+      <c r="I10" s="248">
         <v>33</v>
       </c>
-      <c r="J10" s="240"/>
+      <c r="J10" s="248"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27"/>
@@ -12071,26 +12241,26 @@
       <c r="B11" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="234">
+      <c r="C11" s="251">
         <f>N11</f>
         <v>0.61571897814696952</v>
       </c>
-      <c r="D11" s="253"/>
-      <c r="E11" s="254">
+      <c r="D11" s="260"/>
+      <c r="E11" s="261">
         <f>O11</f>
         <v>0.72486496224438524</v>
       </c>
-      <c r="F11" s="253"/>
-      <c r="G11" s="254">
+      <c r="F11" s="260"/>
+      <c r="G11" s="261">
         <f>P11</f>
         <v>0.79096913931575263</v>
       </c>
-      <c r="H11" s="253"/>
-      <c r="I11" s="234">
+      <c r="H11" s="260"/>
+      <c r="I11" s="251">
         <f>Q11</f>
         <v>0.72277433456881901</v>
       </c>
-      <c r="J11" s="234"/>
+      <c r="J11" s="251"/>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
@@ -12109,17 +12279,17 @@
     </row>
     <row r="12" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
-      <c r="B12" s="248" t="s">
+      <c r="B12" s="263" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="249"/>
-      <c r="D12" s="249"/>
-      <c r="E12" s="249"/>
-      <c r="F12" s="249"/>
-      <c r="G12" s="249"/>
-      <c r="H12" s="249"/>
-      <c r="I12" s="249"/>
-      <c r="J12" s="249"/>
+      <c r="C12" s="264"/>
+      <c r="D12" s="264"/>
+      <c r="E12" s="264"/>
+      <c r="F12" s="264"/>
+      <c r="G12" s="264"/>
+      <c r="H12" s="264"/>
+      <c r="I12" s="264"/>
+      <c r="J12" s="264"/>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
@@ -12130,22 +12300,22 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="30"/>
-      <c r="C13" s="243" t="s">
+      <c r="C13" s="242" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="256"/>
-      <c r="E13" s="243" t="s">
+      <c r="D13" s="255"/>
+      <c r="E13" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="256"/>
-      <c r="G13" s="259" t="s">
+      <c r="F13" s="255"/>
+      <c r="G13" s="258" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="305"/>
-      <c r="I13" s="243" t="s">
+      <c r="H13" s="312"/>
+      <c r="I13" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="231"/>
+      <c r="J13" s="238"/>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
@@ -12156,22 +12326,22 @@
     <row r="14" spans="1:17" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="30"/>
-      <c r="C14" s="231" t="s">
+      <c r="C14" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="256"/>
-      <c r="E14" s="257" t="s">
+      <c r="D14" s="255"/>
+      <c r="E14" s="256" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="258"/>
-      <c r="G14" s="257" t="s">
+      <c r="F14" s="257"/>
+      <c r="G14" s="256" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="258"/>
-      <c r="I14" s="257" t="s">
+      <c r="H14" s="257"/>
+      <c r="I14" s="256" t="s">
         <v>77</v>
       </c>
-      <c r="J14" s="231"/>
+      <c r="J14" s="238"/>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
@@ -12342,22 +12512,22 @@
       <c r="B20" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="240">
+      <c r="C20" s="248">
         <v>31</v>
       </c>
-      <c r="D20" s="252"/>
-      <c r="E20" s="240">
+      <c r="D20" s="259"/>
+      <c r="E20" s="248">
         <v>32</v>
       </c>
-      <c r="F20" s="252"/>
-      <c r="G20" s="255">
+      <c r="F20" s="259"/>
+      <c r="G20" s="262">
         <v>21</v>
       </c>
-      <c r="H20" s="252"/>
-      <c r="I20" s="240">
+      <c r="H20" s="259"/>
+      <c r="I20" s="248">
         <v>33</v>
       </c>
-      <c r="J20" s="240"/>
+      <c r="J20" s="248"/>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
@@ -12370,26 +12540,26 @@
       <c r="B21" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="234">
+      <c r="C21" s="251">
         <f>N21</f>
         <v>0.12235556050138582</v>
       </c>
-      <c r="D21" s="253"/>
-      <c r="E21" s="254">
+      <c r="D21" s="260"/>
+      <c r="E21" s="261">
         <f>O21</f>
         <v>0.14817255106920282</v>
       </c>
-      <c r="F21" s="253"/>
-      <c r="G21" s="254">
+      <c r="F21" s="260"/>
+      <c r="G21" s="261">
         <f>P21</f>
         <v>0.20221725039002678</v>
       </c>
-      <c r="H21" s="253"/>
-      <c r="I21" s="254">
+      <c r="H21" s="260"/>
+      <c r="I21" s="261">
         <f>Q21</f>
         <v>0.13282978602147921</v>
       </c>
-      <c r="J21" s="234"/>
+      <c r="J21" s="251"/>
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
@@ -12408,17 +12578,17 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
-      <c r="B22" s="298" t="s">
+      <c r="B22" s="308" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="298"/>
-      <c r="D22" s="298"/>
-      <c r="E22" s="298"/>
-      <c r="F22" s="298"/>
-      <c r="G22" s="298"/>
-      <c r="H22" s="298"/>
-      <c r="I22" s="298"/>
-      <c r="J22" s="298"/>
+      <c r="C22" s="308"/>
+      <c r="D22" s="308"/>
+      <c r="E22" s="308"/>
+      <c r="F22" s="308"/>
+      <c r="G22" s="308"/>
+      <c r="H22" s="308"/>
+      <c r="I22" s="308"/>
+      <c r="J22" s="308"/>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
@@ -12428,15 +12598,15 @@
     </row>
     <row r="23" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
-      <c r="B23" s="299"/>
-      <c r="C23" s="299"/>
-      <c r="D23" s="299"/>
-      <c r="E23" s="299"/>
-      <c r="F23" s="299"/>
-      <c r="G23" s="299"/>
-      <c r="H23" s="299"/>
-      <c r="I23" s="299"/>
-      <c r="J23" s="299"/>
+      <c r="B23" s="309"/>
+      <c r="C23" s="309"/>
+      <c r="D23" s="309"/>
+      <c r="E23" s="309"/>
+      <c r="F23" s="309"/>
+      <c r="G23" s="309"/>
+      <c r="H23" s="309"/>
+      <c r="I23" s="309"/>
+      <c r="J23" s="309"/>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
@@ -12476,11 +12646,20 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B22:J23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="B12:J12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
@@ -12497,20 +12676,11 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B22:J23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12542,12 +12712,12 @@
     <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="103"/>
-      <c r="C2" s="232" t="s">
+      <c r="C2" s="239" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
@@ -14487,89 +14657,89 @@
     </row>
     <row r="2" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="246" t="s">
+      <c r="B2" s="240" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="247"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="241"/>
+      <c r="F2" s="241"/>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="241"/>
+      <c r="J2" s="241"/>
+      <c r="K2" s="241"/>
+      <c r="L2" s="241"/>
       <c r="M2" s="27"/>
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="127"/>
-      <c r="C3" s="233" t="s">
+      <c r="C3" s="244" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="233"/>
-      <c r="E3" s="233"/>
-      <c r="F3" s="233"/>
-      <c r="G3" s="233"/>
-      <c r="H3" s="233"/>
-      <c r="I3" s="233"/>
-      <c r="J3" s="233"/>
-      <c r="K3" s="233"/>
-      <c r="L3" s="233"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="244"/>
       <c r="M3" s="27"/>
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="30"/>
-      <c r="C4" s="243" t="s">
+      <c r="C4" s="242" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="244"/>
-      <c r="E4" s="243" t="s">
+      <c r="D4" s="243"/>
+      <c r="E4" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="244"/>
-      <c r="G4" s="243" t="s">
+      <c r="F4" s="243"/>
+      <c r="G4" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="244"/>
-      <c r="I4" s="243" t="s">
+      <c r="H4" s="243"/>
+      <c r="I4" s="242" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="244"/>
-      <c r="K4" s="243" t="s">
+      <c r="J4" s="243"/>
+      <c r="K4" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="231"/>
+      <c r="L4" s="238"/>
       <c r="M4" s="27"/>
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="30"/>
-      <c r="C5" s="231" t="s">
+      <c r="C5" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="244"/>
-      <c r="E5" s="239" t="s">
+      <c r="D5" s="243"/>
+      <c r="E5" s="245" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="238"/>
-      <c r="G5" s="237" t="s">
+      <c r="F5" s="246"/>
+      <c r="G5" s="247" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="238"/>
-      <c r="I5" s="239" t="s">
+      <c r="H5" s="246"/>
+      <c r="I5" s="245" t="s">
         <v>114</v>
       </c>
-      <c r="J5" s="238"/>
-      <c r="K5" s="237" t="s">
+      <c r="J5" s="246"/>
+      <c r="K5" s="247" t="s">
         <v>115</v>
       </c>
-      <c r="L5" s="237"/>
+      <c r="L5" s="247"/>
       <c r="M5" s="27"/>
       <c r="N5" s="7"/>
     </row>
@@ -14772,26 +14942,26 @@
       <c r="B12" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="240">
+      <c r="C12" s="248">
         <v>38</v>
       </c>
-      <c r="D12" s="241"/>
-      <c r="E12" s="242">
+      <c r="D12" s="249"/>
+      <c r="E12" s="250">
         <v>38</v>
       </c>
-      <c r="F12" s="241"/>
-      <c r="G12" s="240">
+      <c r="F12" s="249"/>
+      <c r="G12" s="248">
         <v>38</v>
       </c>
-      <c r="H12" s="241"/>
-      <c r="I12" s="242">
+      <c r="H12" s="249"/>
+      <c r="I12" s="250">
         <v>38</v>
       </c>
-      <c r="J12" s="241"/>
-      <c r="K12" s="240">
+      <c r="J12" s="249"/>
+      <c r="K12" s="248">
         <v>38</v>
       </c>
-      <c r="L12" s="240"/>
+      <c r="L12" s="248"/>
       <c r="M12" s="27"/>
       <c r="N12" s="7"/>
     </row>
@@ -14800,29 +14970,29 @@
       <c r="B13" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="234">
+      <c r="C13" s="251">
         <v>0.28109520799999999</v>
       </c>
-      <c r="D13" s="235"/>
-      <c r="E13" s="236">
+      <c r="D13" s="252"/>
+      <c r="E13" s="253">
         <v>0.38214216899999998</v>
       </c>
-      <c r="F13" s="235"/>
-      <c r="G13" s="234">
+      <c r="F13" s="252"/>
+      <c r="G13" s="251">
         <f>O13</f>
         <v>0.78926516416204306</v>
       </c>
-      <c r="H13" s="235"/>
-      <c r="I13" s="234">
+      <c r="H13" s="252"/>
+      <c r="I13" s="251">
         <f>P13</f>
         <v>0.87969758814644494</v>
       </c>
-      <c r="J13" s="235"/>
-      <c r="K13" s="234">
+      <c r="J13" s="252"/>
+      <c r="K13" s="251">
         <f>Q13</f>
         <v>0.87537377531821592</v>
       </c>
-      <c r="L13" s="234"/>
+      <c r="L13" s="251"/>
       <c r="M13" s="27"/>
       <c r="N13" s="7"/>
       <c r="O13">
@@ -14837,36 +15007,36 @@
     </row>
     <row r="14" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
-      <c r="B14" s="246" t="s">
+      <c r="B14" s="240" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="247"/>
-      <c r="D14" s="247"/>
-      <c r="E14" s="247"/>
-      <c r="F14" s="247"/>
-      <c r="G14" s="247"/>
-      <c r="H14" s="247"/>
-      <c r="I14" s="247"/>
-      <c r="J14" s="247"/>
-      <c r="K14" s="247"/>
-      <c r="L14" s="247"/>
+      <c r="C14" s="241"/>
+      <c r="D14" s="241"/>
+      <c r="E14" s="241"/>
+      <c r="F14" s="241"/>
+      <c r="G14" s="241"/>
+      <c r="H14" s="241"/>
+      <c r="I14" s="241"/>
+      <c r="J14" s="241"/>
+      <c r="K14" s="241"/>
+      <c r="L14" s="241"/>
       <c r="M14" s="27"/>
     </row>
     <row r="15" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="127"/>
-      <c r="C15" s="233" t="s">
+      <c r="C15" s="244" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="233"/>
-      <c r="E15" s="233"/>
-      <c r="F15" s="233"/>
-      <c r="G15" s="233"/>
-      <c r="H15" s="233"/>
-      <c r="I15" s="233"/>
-      <c r="J15" s="233"/>
-      <c r="K15" s="233"/>
-      <c r="L15" s="233"/>
+      <c r="D15" s="244"/>
+      <c r="E15" s="244"/>
+      <c r="F15" s="244"/>
+      <c r="G15" s="244"/>
+      <c r="H15" s="244"/>
+      <c r="I15" s="244"/>
+      <c r="J15" s="244"/>
+      <c r="K15" s="244"/>
+      <c r="L15" s="244"/>
       <c r="M15" s="27"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -14876,18 +15046,18 @@
       <c r="D16" s="24"/>
       <c r="E16" s="17"/>
       <c r="F16" s="52"/>
-      <c r="G16" s="243" t="s">
+      <c r="G16" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="244"/>
-      <c r="I16" s="243" t="s">
+      <c r="H16" s="243"/>
+      <c r="I16" s="242" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="244"/>
-      <c r="K16" s="243" t="s">
+      <c r="J16" s="243"/>
+      <c r="K16" s="242" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="231"/>
+      <c r="L16" s="238"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="1:17" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14897,18 +15067,18 @@
       <c r="D17" s="24"/>
       <c r="E17" s="17"/>
       <c r="F17" s="52"/>
-      <c r="G17" s="245" t="s">
+      <c r="G17" s="254" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="244"/>
-      <c r="I17" s="239" t="s">
+      <c r="H17" s="243"/>
+      <c r="I17" s="245" t="s">
         <v>116</v>
       </c>
-      <c r="J17" s="238"/>
-      <c r="K17" s="237" t="s">
+      <c r="J17" s="246"/>
+      <c r="K17" s="247" t="s">
         <v>117</v>
       </c>
-      <c r="L17" s="237"/>
+      <c r="L17" s="247"/>
       <c r="M17" s="27"/>
     </row>
     <row r="18" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -15080,18 +15250,18 @@
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="54"/>
-      <c r="G24" s="240">
+      <c r="G24" s="248">
         <v>38</v>
       </c>
-      <c r="H24" s="241"/>
-      <c r="I24" s="242">
+      <c r="H24" s="249"/>
+      <c r="I24" s="250">
         <v>38</v>
       </c>
-      <c r="J24" s="241"/>
-      <c r="K24" s="240">
+      <c r="J24" s="249"/>
+      <c r="K24" s="248">
         <v>38</v>
       </c>
-      <c r="L24" s="240"/>
+      <c r="L24" s="248"/>
       <c r="M24" s="27"/>
     </row>
     <row r="25" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -15103,21 +15273,21 @@
       <c r="D25" s="76"/>
       <c r="E25" s="76"/>
       <c r="F25" s="55"/>
-      <c r="G25" s="236">
+      <c r="G25" s="253">
         <f>O25</f>
         <v>0.4891966309333044</v>
       </c>
-      <c r="H25" s="235"/>
-      <c r="I25" s="236">
+      <c r="H25" s="252"/>
+      <c r="I25" s="253">
         <f>P25</f>
         <v>0.6264136825064347</v>
       </c>
-      <c r="J25" s="235"/>
-      <c r="K25" s="236">
+      <c r="J25" s="252"/>
+      <c r="K25" s="253">
         <f>Q25</f>
         <v>0.6036198370405732</v>
       </c>
-      <c r="L25" s="234"/>
+      <c r="L25" s="251"/>
       <c r="M25" s="27"/>
       <c r="O25">
         <v>0.4891966309333044</v>
@@ -15217,12 +15387,12 @@
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="24"/>
-      <c r="G37" s="237"/>
-      <c r="H37" s="238"/>
-      <c r="I37" s="239"/>
-      <c r="J37" s="238"/>
-      <c r="K37" s="237"/>
-      <c r="L37" s="237"/>
+      <c r="G37" s="247"/>
+      <c r="H37" s="246"/>
+      <c r="I37" s="245"/>
+      <c r="J37" s="246"/>
+      <c r="K37" s="247"/>
+      <c r="L37" s="247"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="24"/>
@@ -15321,30 +15491,45 @@
       <c r="L48" s="19"/>
     </row>
     <row r="49" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G49" s="240"/>
-      <c r="H49" s="241"/>
-      <c r="I49" s="242"/>
-      <c r="J49" s="241"/>
-      <c r="K49" s="240"/>
-      <c r="L49" s="240"/>
+      <c r="G49" s="248"/>
+      <c r="H49" s="249"/>
+      <c r="I49" s="250"/>
+      <c r="J49" s="249"/>
+      <c r="K49" s="248"/>
+      <c r="L49" s="248"/>
     </row>
     <row r="50" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G50" s="234"/>
-      <c r="H50" s="235"/>
-      <c r="I50" s="236"/>
-      <c r="J50" s="235"/>
-      <c r="K50" s="234"/>
-      <c r="L50" s="234"/>
+      <c r="G50" s="251"/>
+      <c r="H50" s="252"/>
+      <c r="I50" s="253"/>
+      <c r="J50" s="252"/>
+      <c r="K50" s="251"/>
+      <c r="L50" s="251"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
     <mergeCell ref="B14:L14"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
@@ -15361,28 +15546,13 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:L13"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15425,15 +15595,15 @@
     </row>
     <row r="2" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="246" t="s">
+      <c r="B2" s="240" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="241"/>
+      <c r="F2" s="241"/>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
@@ -15444,18 +15614,18 @@
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="31"/>
-      <c r="C3" s="243" t="s">
+      <c r="C3" s="242" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="243" t="s">
+      <c r="D3" s="255"/>
+      <c r="E3" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="256"/>
-      <c r="G3" s="259" t="s">
+      <c r="F3" s="255"/>
+      <c r="G3" s="258" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="243"/>
+      <c r="H3" s="242"/>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
@@ -15466,18 +15636,18 @@
     <row r="4" spans="1:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="31"/>
-      <c r="C4" s="237" t="s">
+      <c r="C4" s="247" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="256"/>
-      <c r="E4" s="257" t="s">
+      <c r="D4" s="255"/>
+      <c r="E4" s="256" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="258"/>
-      <c r="G4" s="257" t="s">
+      <c r="F4" s="257"/>
+      <c r="G4" s="256" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="237"/>
+      <c r="H4" s="247"/>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
@@ -15630,18 +15800,18 @@
       <c r="B10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="240">
+      <c r="C10" s="248">
         <v>31</v>
       </c>
-      <c r="D10" s="252"/>
-      <c r="E10" s="240">
+      <c r="D10" s="259"/>
+      <c r="E10" s="248">
         <v>32</v>
       </c>
-      <c r="F10" s="252"/>
-      <c r="G10" s="255">
+      <c r="F10" s="259"/>
+      <c r="G10" s="262">
         <v>21</v>
       </c>
-      <c r="H10" s="240"/>
+      <c r="H10" s="248"/>
       <c r="I10" s="27"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
@@ -15654,21 +15824,21 @@
       <c r="B11" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="234">
+      <c r="C11" s="251">
         <f>L11</f>
         <v>0.61571897814696952</v>
       </c>
-      <c r="D11" s="253"/>
-      <c r="E11" s="254">
+      <c r="D11" s="260"/>
+      <c r="E11" s="261">
         <f>M11</f>
         <v>0.7417219375190941</v>
       </c>
-      <c r="F11" s="253"/>
-      <c r="G11" s="254">
+      <c r="F11" s="260"/>
+      <c r="G11" s="261">
         <f>N11</f>
         <v>0.80466929780955043</v>
       </c>
-      <c r="H11" s="234"/>
+      <c r="H11" s="251"/>
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
@@ -15684,15 +15854,15 @@
     </row>
     <row r="12" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
-      <c r="B12" s="248" t="s">
+      <c r="B12" s="263" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="249"/>
-      <c r="D12" s="249"/>
-      <c r="E12" s="249"/>
-      <c r="F12" s="249"/>
-      <c r="G12" s="249"/>
-      <c r="H12" s="249"/>
+      <c r="C12" s="264"/>
+      <c r="D12" s="264"/>
+      <c r="E12" s="264"/>
+      <c r="F12" s="264"/>
+      <c r="G12" s="264"/>
+      <c r="H12" s="264"/>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
@@ -15703,18 +15873,18 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="30"/>
-      <c r="C13" s="243" t="s">
+      <c r="C13" s="242" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="256"/>
-      <c r="E13" s="243" t="s">
+      <c r="D13" s="255"/>
+      <c r="E13" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="256"/>
-      <c r="G13" s="259" t="s">
+      <c r="F13" s="255"/>
+      <c r="G13" s="258" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="243"/>
+      <c r="H13" s="242"/>
       <c r="I13" s="27"/>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -15725,18 +15895,18 @@
     <row r="14" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="30"/>
-      <c r="C14" s="237" t="s">
+      <c r="C14" s="247" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="256"/>
-      <c r="E14" s="257" t="s">
+      <c r="D14" s="255"/>
+      <c r="E14" s="256" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="258"/>
-      <c r="G14" s="257" t="s">
+      <c r="F14" s="257"/>
+      <c r="G14" s="256" t="s">
         <v>121</v>
       </c>
-      <c r="H14" s="237"/>
+      <c r="H14" s="247"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
@@ -15889,18 +16059,18 @@
       <c r="B20" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="240">
+      <c r="C20" s="248">
         <v>31</v>
       </c>
-      <c r="D20" s="252"/>
-      <c r="E20" s="240">
+      <c r="D20" s="259"/>
+      <c r="E20" s="248">
         <v>32</v>
       </c>
-      <c r="F20" s="252"/>
-      <c r="G20" s="255">
+      <c r="F20" s="259"/>
+      <c r="G20" s="262">
         <v>21</v>
       </c>
-      <c r="H20" s="240"/>
+      <c r="H20" s="248"/>
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
@@ -15913,21 +16083,21 @@
       <c r="B21" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="234">
+      <c r="C21" s="251">
         <f>L21</f>
         <v>0.12235556050138582</v>
       </c>
-      <c r="D21" s="253"/>
-      <c r="E21" s="254">
+      <c r="D21" s="260"/>
+      <c r="E21" s="261">
         <f>M21</f>
         <v>0.15210459418202643</v>
       </c>
-      <c r="F21" s="253"/>
-      <c r="G21" s="254">
+      <c r="F21" s="260"/>
+      <c r="G21" s="261">
         <f>N21</f>
         <v>0.26204031407125944</v>
       </c>
-      <c r="H21" s="234"/>
+      <c r="H21" s="251"/>
       <c r="I21" s="27"/>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
@@ -15943,28 +16113,28 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
-      <c r="B22" s="250" t="s">
+      <c r="B22" s="265" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="250"/>
-      <c r="D22" s="250"/>
-      <c r="E22" s="250"/>
-      <c r="F22" s="250"/>
-      <c r="G22" s="250"/>
-      <c r="H22" s="250"/>
+      <c r="C22" s="265"/>
+      <c r="D22" s="265"/>
+      <c r="E22" s="265"/>
+      <c r="F22" s="265"/>
+      <c r="G22" s="265"/>
+      <c r="H22" s="265"/>
       <c r="I22" s="27"/>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
     </row>
     <row r="23" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
-      <c r="B23" s="251"/>
-      <c r="C23" s="251"/>
-      <c r="D23" s="251"/>
-      <c r="E23" s="251"/>
-      <c r="F23" s="251"/>
-      <c r="G23" s="251"/>
-      <c r="H23" s="251"/>
+      <c r="B23" s="266"/>
+      <c r="C23" s="266"/>
+      <c r="D23" s="266"/>
+      <c r="E23" s="266"/>
+      <c r="F23" s="266"/>
+      <c r="G23" s="266"/>
+      <c r="H23" s="266"/>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
@@ -15997,17 +16167,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B22:H23"/>
@@ -16024,6 +16183,17 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -16067,61 +16237,61 @@
     </row>
     <row r="2" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="246" t="s">
+      <c r="B2" s="240" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="241"/>
+      <c r="F2" s="241"/>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="241"/>
+      <c r="J2" s="241"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="31"/>
-      <c r="C3" s="243" t="s">
+      <c r="C3" s="242" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="243" t="s">
+      <c r="D3" s="255"/>
+      <c r="E3" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="256"/>
-      <c r="G3" s="259" t="s">
+      <c r="F3" s="255"/>
+      <c r="G3" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="256"/>
-      <c r="I3" s="243" t="s">
+      <c r="H3" s="255"/>
+      <c r="I3" s="242" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="231"/>
+      <c r="J3" s="238"/>
       <c r="K3" s="27"/>
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="31"/>
-      <c r="C4" s="231" t="s">
+      <c r="C4" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="256"/>
-      <c r="E4" s="257" t="s">
+      <c r="D4" s="255"/>
+      <c r="E4" s="256" t="s">
         <v>128</v>
       </c>
-      <c r="F4" s="258"/>
-      <c r="G4" s="257" t="s">
+      <c r="F4" s="257"/>
+      <c r="G4" s="256" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="256"/>
-      <c r="I4" s="237" t="s">
+      <c r="H4" s="255"/>
+      <c r="I4" s="247" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="231"/>
+      <c r="J4" s="238"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
@@ -16304,22 +16474,22 @@
       <c r="B12" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="240">
+      <c r="C12" s="248">
         <v>38</v>
       </c>
-      <c r="D12" s="252"/>
-      <c r="E12" s="255">
+      <c r="D12" s="259"/>
+      <c r="E12" s="262">
         <v>38</v>
       </c>
-      <c r="F12" s="252"/>
-      <c r="G12" s="255">
+      <c r="F12" s="259"/>
+      <c r="G12" s="262">
         <v>38</v>
       </c>
-      <c r="H12" s="252"/>
-      <c r="I12" s="240">
+      <c r="H12" s="259"/>
+      <c r="I12" s="248">
         <v>38</v>
       </c>
-      <c r="J12" s="240"/>
+      <c r="J12" s="248"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
@@ -16328,26 +16498,26 @@
       <c r="B13" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="234">
+      <c r="C13" s="251">
         <f>M13</f>
         <v>0.3032675605879514</v>
       </c>
-      <c r="D13" s="253"/>
-      <c r="E13" s="254">
+      <c r="D13" s="260"/>
+      <c r="E13" s="261">
         <f>N13</f>
         <v>0.43858138193669671</v>
       </c>
-      <c r="F13" s="253"/>
-      <c r="G13" s="254">
+      <c r="F13" s="260"/>
+      <c r="G13" s="261">
         <f>O13</f>
         <v>0.44569213309189742</v>
       </c>
-      <c r="H13" s="253"/>
-      <c r="I13" s="234">
+      <c r="H13" s="260"/>
+      <c r="I13" s="251">
         <f>P13</f>
         <v>0.45380565810102486</v>
       </c>
-      <c r="J13" s="234"/>
+      <c r="J13" s="251"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13">
@@ -16365,15 +16535,15 @@
     </row>
     <row r="14" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
-      <c r="B14" s="260" t="s">
+      <c r="B14" s="267" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="260"/>
-      <c r="D14" s="260"/>
-      <c r="E14" s="260"/>
-      <c r="F14" s="260"/>
-      <c r="G14" s="260"/>
-      <c r="H14" s="260"/>
+      <c r="C14" s="267"/>
+      <c r="D14" s="267"/>
+      <c r="E14" s="267"/>
+      <c r="F14" s="267"/>
+      <c r="G14" s="267"/>
+      <c r="H14" s="267"/>
       <c r="I14" s="27"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -16449,6 +16619,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B2:J2"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -16462,11 +16637,6 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -16518,14 +16688,14 @@
     </row>
     <row r="2" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="261" t="s">
+      <c r="B2" s="268" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="261"/>
-      <c r="D2" s="261"/>
-      <c r="E2" s="261"/>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
+      <c r="C2" s="268"/>
+      <c r="D2" s="268"/>
+      <c r="E2" s="268"/>
+      <c r="F2" s="268"/>
+      <c r="G2" s="268"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
@@ -16575,14 +16745,14 @@
     </row>
     <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="231" t="s">
+      <c r="B5" s="238" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="231"/>
-      <c r="D5" s="231"/>
-      <c r="E5" s="231"/>
-      <c r="F5" s="231"/>
-      <c r="G5" s="231"/>
+      <c r="C5" s="238"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
+      <c r="G5" s="238"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
@@ -16703,14 +16873,14 @@
     </row>
     <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="231" t="s">
+      <c r="B11" s="238" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="231"/>
-      <c r="D11" s="231"/>
-      <c r="E11" s="231"/>
-      <c r="F11" s="231"/>
-      <c r="G11" s="231"/>
+      <c r="C11" s="238"/>
+      <c r="D11" s="238"/>
+      <c r="E11" s="238"/>
+      <c r="F11" s="238"/>
+      <c r="G11" s="238"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
